--- a/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering i PTE projektet - JM.xlsx
+++ b/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering i PTE projektet - JM.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="72">
   <si>
     <t>Business-Process Analyst</t>
   </si>
@@ -238,6 +238,15 @@
   </si>
   <si>
     <t>CD,SD erLængde2Normal</t>
+  </si>
+  <si>
+    <t>Review af OC 12 test suite</t>
+  </si>
+  <si>
+    <t>OC 12</t>
+  </si>
+  <si>
+    <t>Samlende DOM</t>
   </si>
 </sst>
 </file>
@@ -612,7 +621,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,22 +983,82 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>42815</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I17" s="5">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>42815</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="I18" s="5">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>42815</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="I19" s="5">
+        <v>6.9444444444444434E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
   </sheetData>
